--- a/jpcore-r4/feature/swg3-OrganizationExtensionCoding/CodeSystem-jp-prefecturenumber-cs.xlsx
+++ b/jpcore-r4/feature/swg3-OrganizationExtensionCoding/CodeSystem-jp-prefecturenumber-cs.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>urn:oid:1.2.392.100495.20.3.21</t>
+    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_PrefectureNumber_CS</t>
   </si>
   <si>
     <t>Version</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>JP Core PrefectureNumber Codes</t>
+    <t>JP Core PrefectureNumber CodeSystem</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T10:42:30+00:00</t>
+    <t>2022-08-30T07:18:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
